--- a/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section02/특정텍스트분리(준비).xlsx
+++ b/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section02/특정텍스트분리(준비).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2_집필원고\직장인실무2019\Part1\Section02\02_Sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song-yonghun/Study/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773C510F-1DE8-4C34-92CB-6661842A6D86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1770C17-6083-3A47-AA71-02338BADCD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15280" windowHeight="8070" xr2:uid="{211C7D4E-E696-4B51-B808-CB003ACF8B5E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="22100" windowHeight="18360" xr2:uid="{211C7D4E-E696-4B51-B808-CB003ACF8B5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
   <si>
     <t>직원 기본 정보</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -189,13 +189,34 @@
   </si>
   <si>
     <t>배은희</t>
+  </si>
+  <si>
+    <t>안양</t>
+  </si>
+  <si>
+    <t>안양</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이천</t>
+  </si>
+  <si>
+    <t>이천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울</t>
+  </si>
+  <si>
+    <t>서울</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,7 +423,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -418,31 +439,25 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -768,36 +783,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395316DE-1CF1-4A67-9AAB-51A55E140113}">
   <dimension ref="B1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" style="1" customWidth="1"/>
     <col min="7" max="8" width="10.5" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="14" t="s">
+    <row r="1" spans="2:8" ht="10.5" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:8" ht="21.75" customHeight="1" thickBot="1">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="2:8" s="5" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="2:8" ht="18" thickBot="1"/>
+    <row r="4" spans="2:8" ht="18" thickBot="1">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -820,347 +835,419 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="2:8" ht="18" thickTop="1">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>30041</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="6" t="s">
+      <c r="G5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="6">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>32290</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="6" t="s">
+      <c r="G6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>30900</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="6" t="s">
+      <c r="G7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>31834</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="6" t="s">
+      <c r="G8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>30041</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="6" t="s">
+      <c r="G9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>33659</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="6" t="s">
+      <c r="G10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="6">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>32292</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="6" t="s">
+      <c r="G11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>33691</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="6" t="s">
+      <c r="G12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="6">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="10">
         <v>34117</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B14" s="6" t="s">
+      <c r="G13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="6">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="10">
         <v>30009</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B15" s="6" t="s">
+      <c r="G14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="6">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="10">
         <v>32725</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B16" s="6" t="s">
+      <c r="G15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="6">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>33691</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B17" s="6" t="s">
+      <c r="G16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="6">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="10">
         <v>32292</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B18" s="6" t="s">
+      <c r="G17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="10">
         <v>31192</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B19" s="6" t="s">
+      <c r="G18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="6">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="10">
         <v>31834</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B20" s="6" t="s">
+      <c r="G19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="6">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="10">
         <v>30900</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B21" s="6" t="s">
+      <c r="G20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="6">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>33691</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B22" s="6" t="s">
+      <c r="G21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="6">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="10">
         <v>30467</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="G22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="6">
+        <v>2149</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
